--- a/Excel-XLSX/UN-SVN.xlsx
+++ b/Excel-XLSX/UN-SVN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="787">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5LAgZ3</t>
+    <t>eH59P7</t>
   </si>
   <si>
     <t>1992</t>
@@ -2265,12 +2265,24 @@
     <t>520</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>521</t>
   </si>
   <si>
     <t>522</t>
   </si>
   <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
     <t>523</t>
   </si>
   <si>
@@ -2295,18 +2307,18 @@
     <t>530</t>
   </si>
   <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>MNG</t>
   </si>
   <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
     <t>533</t>
   </si>
   <si>
@@ -2319,18 +2331,18 @@
     <t>536</t>
   </si>
   <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
     <t>SEN</t>
   </si>
   <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
     <t>539</t>
   </si>
   <si>
@@ -2355,13 +2367,16 @@
     <t>546</t>
   </si>
   <si>
-    <t>10231</t>
-  </si>
-  <si>
     <t>547</t>
   </si>
   <si>
+    <t>11296</t>
+  </si>
+  <si>
     <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2761,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V549"/>
+  <dimension ref="A1:V550"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -37407,10 +37422,10 @@
         <v>31</v>
       </c>
       <c r="N510" s="2" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="O510" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P510" s="2" t="s">
         <v>33</v>
@@ -37478,7 +37493,7 @@
         <v>33</v>
       </c>
       <c r="O511" s="2" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="P511" s="2" t="s">
         <v>33</v>
@@ -37546,7 +37561,7 @@
         <v>33</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>33</v>
@@ -37747,10 +37762,10 @@
         <v>31</v>
       </c>
       <c r="N515" s="2" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="P515" s="2" t="s">
         <v>33</v>
@@ -37791,16 +37806,16 @@
         <v>737</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>29</v>
@@ -37815,10 +37830,10 @@
         <v>31</v>
       </c>
       <c r="N516" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P516" s="2" t="s">
         <v>33</v>
@@ -37859,16 +37874,16 @@
         <v>737</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>29</v>
@@ -37883,7 +37898,7 @@
         <v>31</v>
       </c>
       <c r="N517" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O517" s="2" t="s">
         <v>33</v>
@@ -37927,16 +37942,16 @@
         <v>737</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>26</v>
+        <v>702</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>27</v>
+        <v>703</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>28</v>
+        <v>703</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>29</v>
@@ -37951,10 +37966,10 @@
         <v>31</v>
       </c>
       <c r="N518" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O518" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P518" s="2" t="s">
         <v>33</v>
@@ -37995,16 +38010,16 @@
         <v>737</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>702</v>
+        <v>130</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>703</v>
+        <v>131</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>703</v>
+        <v>131</v>
       </c>
       <c r="J519" s="2" t="s">
         <v>29</v>
@@ -38019,10 +38034,10 @@
         <v>31</v>
       </c>
       <c r="N519" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="O519" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P519" s="2" t="s">
         <v>33</v>
@@ -38063,16 +38078,16 @@
         <v>737</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="J520" s="2" t="s">
         <v>29</v>
@@ -38087,7 +38102,7 @@
         <v>31</v>
       </c>
       <c r="N520" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O520" s="2" t="s">
         <v>47</v>
@@ -38131,16 +38146,16 @@
         <v>737</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>320</v>
+        <v>749</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>321</v>
+        <v>750</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>321</v>
+        <v>750</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>29</v>
@@ -38155,7 +38170,7 @@
         <v>31</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O521" s="2" t="s">
         <v>47</v>
@@ -38193,7 +38208,7 @@
         <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>737</v>
@@ -38261,22 +38276,22 @@
         <v>22</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>659</v>
+        <v>753</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>660</v>
+        <v>754</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="J523" s="2" t="s">
         <v>29</v>
@@ -38291,10 +38306,10 @@
         <v>31</v>
       </c>
       <c r="N523" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O523" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O523" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P523" s="2" t="s">
         <v>33</v>
@@ -38329,22 +38344,22 @@
         <v>22</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>134</v>
+        <v>659</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>135</v>
+        <v>660</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>136</v>
+        <v>661</v>
       </c>
       <c r="J524" s="2" t="s">
         <v>29</v>
@@ -38359,10 +38374,10 @@
         <v>31</v>
       </c>
       <c r="N524" s="2" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P524" s="2" t="s">
         <v>33</v>
@@ -38397,22 +38412,22 @@
         <v>22</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J525" s="2" t="s">
         <v>29</v>
@@ -38427,10 +38442,10 @@
         <v>31</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O525" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="P525" s="2" t="s">
         <v>33</v>
@@ -38465,22 +38480,22 @@
         <v>22</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>29</v>
@@ -38495,10 +38510,10 @@
         <v>31</v>
       </c>
       <c r="N526" s="2" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P526" s="2" t="s">
         <v>33</v>
@@ -38533,22 +38548,22 @@
         <v>22</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>713</v>
+        <v>148</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>714</v>
+        <v>149</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>714</v>
+        <v>149</v>
       </c>
       <c r="J527" s="2" t="s">
         <v>29</v>
@@ -38563,10 +38578,10 @@
         <v>31</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P527" s="2" t="s">
         <v>33</v>
@@ -38601,22 +38616,22 @@
         <v>22</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>29</v>
@@ -38631,10 +38646,10 @@
         <v>31</v>
       </c>
       <c r="N528" s="2" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P528" s="2" t="s">
         <v>33</v>
@@ -38669,22 +38684,22 @@
         <v>22</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>517</v>
+        <v>713</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>518</v>
+        <v>714</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>518</v>
+        <v>714</v>
       </c>
       <c r="J529" s="2" t="s">
         <v>29</v>
@@ -38702,7 +38717,7 @@
         <v>33</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P529" s="2" t="s">
         <v>33</v>
@@ -38737,22 +38752,22 @@
         <v>22</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>172</v>
+        <v>716</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>173</v>
+        <v>717</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>173</v>
+        <v>717</v>
       </c>
       <c r="J530" s="2" t="s">
         <v>29</v>
@@ -38770,7 +38785,7 @@
         <v>47</v>
       </c>
       <c r="O530" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P530" s="2" t="s">
         <v>33</v>
@@ -38805,22 +38820,22 @@
         <v>22</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>759</v>
+        <v>326</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>760</v>
+        <v>327</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>760</v>
+        <v>327</v>
       </c>
       <c r="J531" s="2" t="s">
         <v>29</v>
@@ -38835,10 +38850,10 @@
         <v>31</v>
       </c>
       <c r="N531" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="P531" s="2" t="s">
         <v>33</v>
@@ -38873,22 +38888,22 @@
         <v>22</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J532" s="2" t="s">
         <v>29</v>
@@ -38906,7 +38921,7 @@
         <v>47</v>
       </c>
       <c r="O532" s="2" t="s">
-        <v>404</v>
+        <v>47</v>
       </c>
       <c r="P532" s="2" t="s">
         <v>33</v>
@@ -38941,22 +38956,22 @@
         <v>22</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>630</v>
+        <v>765</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>631</v>
+        <v>766</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>632</v>
+        <v>766</v>
       </c>
       <c r="J533" s="2" t="s">
         <v>29</v>
@@ -38974,7 +38989,7 @@
         <v>33</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P533" s="2" t="s">
         <v>33</v>
@@ -39009,22 +39024,22 @@
         <v>22</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="J534" s="2" t="s">
         <v>29</v>
@@ -39039,10 +39054,10 @@
         <v>31</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="P534" s="2" t="s">
         <v>33</v>
@@ -39077,22 +39092,22 @@
         <v>22</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>181</v>
+        <v>631</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>181</v>
+        <v>632</v>
       </c>
       <c r="J535" s="2" t="s">
         <v>29</v>
@@ -39107,10 +39122,10 @@
         <v>31</v>
       </c>
       <c r="N535" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O535" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O535" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="P535" s="2" t="s">
         <v>33</v>
@@ -39145,22 +39160,22 @@
         <v>22</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>188</v>
+        <v>364</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>189</v>
+        <v>365</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="J536" s="2" t="s">
         <v>29</v>
@@ -39175,10 +39190,10 @@
         <v>31</v>
       </c>
       <c r="N536" s="2" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P536" s="2" t="s">
         <v>33</v>
@@ -39213,22 +39228,22 @@
         <v>22</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>767</v>
+        <v>180</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>768</v>
+        <v>181</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>768</v>
+        <v>181</v>
       </c>
       <c r="J537" s="2" t="s">
         <v>29</v>
@@ -39281,22 +39296,22 @@
         <v>22</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J538" s="2" t="s">
         <v>29</v>
@@ -39311,10 +39326,10 @@
         <v>31</v>
       </c>
       <c r="N538" s="2" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="O538" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="P538" s="2" t="s">
         <v>33</v>
@@ -39349,22 +39364,22 @@
         <v>22</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>72</v>
+        <v>773</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>73</v>
+        <v>774</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>73</v>
+        <v>774</v>
       </c>
       <c r="J539" s="2" t="s">
         <v>29</v>
@@ -39379,10 +39394,10 @@
         <v>31</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="O539" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P539" s="2" t="s">
         <v>33</v>
@@ -39417,22 +39432,22 @@
         <v>22</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="J540" s="2" t="s">
         <v>29</v>
@@ -39447,10 +39462,10 @@
         <v>31</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="O540" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P540" s="2" t="s">
         <v>33</v>
@@ -39462,10 +39477,10 @@
         <v>33</v>
       </c>
       <c r="S540" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="T540" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U540" s="1" t="s">
         <v>35</v>
@@ -39485,22 +39500,22 @@
         <v>22</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="J541" s="2" t="s">
         <v>29</v>
@@ -39515,10 +39530,10 @@
         <v>31</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P541" s="2" t="s">
         <v>33</v>
@@ -39553,22 +39568,22 @@
         <v>22</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J542" s="2" t="s">
         <v>29</v>
@@ -39598,7 +39613,7 @@
         <v>33</v>
       </c>
       <c r="S542" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T542" s="2" t="s">
         <v>47</v>
@@ -39621,22 +39636,22 @@
         <v>22</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>409</v>
+        <v>206</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>409</v>
+        <v>207</v>
       </c>
       <c r="J543" s="2" t="s">
         <v>29</v>
@@ -39651,10 +39666,10 @@
         <v>31</v>
       </c>
       <c r="N543" s="2" t="s">
-        <v>578</v>
+        <v>50</v>
       </c>
       <c r="O543" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="P543" s="2" t="s">
         <v>33</v>
@@ -39689,22 +39704,22 @@
         <v>22</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>29</v>
@@ -39719,10 +39734,10 @@
         <v>31</v>
       </c>
       <c r="N544" s="2" t="s">
-        <v>33</v>
+        <v>578</v>
       </c>
       <c r="O544" s="2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="P544" s="2" t="s">
         <v>33</v>
@@ -39757,22 +39772,22 @@
         <v>22</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="J545" s="2" t="s">
         <v>29</v>
@@ -39787,10 +39802,10 @@
         <v>31</v>
       </c>
       <c r="N545" s="2" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P545" s="2" t="s">
         <v>33</v>
@@ -39825,22 +39840,22 @@
         <v>22</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="J546" s="2" t="s">
         <v>29</v>
@@ -39855,10 +39870,10 @@
         <v>31</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P546" s="2" t="s">
         <v>33</v>
@@ -39893,22 +39908,22 @@
         <v>22</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="J547" s="2" t="s">
         <v>29</v>
@@ -39923,13 +39938,13 @@
         <v>31</v>
       </c>
       <c r="N547" s="2" t="s">
-        <v>779</v>
+        <v>178</v>
       </c>
       <c r="O547" s="2" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="P547" s="2" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="Q547" s="2" t="s">
         <v>33</v>
@@ -39961,22 +39976,22 @@
         <v>22</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>686</v>
+        <v>243</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>687</v>
+        <v>244</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>687</v>
+        <v>244</v>
       </c>
       <c r="J548" s="2" t="s">
         <v>29</v>
@@ -39991,10 +40006,10 @@
         <v>31</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>76</v>
+        <v>784</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="P548" s="2" t="s">
         <v>33</v>
@@ -40029,60 +40044,128 @@
         <v>22</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>737</v>
       </c>
       <c r="F549" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N549" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T549" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V549" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F550" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G549" s="1" t="s">
+      <c r="G550" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H549" s="1" t="s">
+      <c r="H550" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I549" s="1" t="s">
+      <c r="I550" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J549" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K549" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L549" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M549" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N549" s="2" t="s">
+      <c r="J550" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N550" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T549" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U549" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V549" s="2" t="s">
+      <c r="O550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T550" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V550" s="2" t="s">
         <v>33</v>
       </c>
     </row>
